--- a/po_analysis_by_asin/B0B3SLQDQF_po_data.xlsx
+++ b/po_analysis_by_asin/B0B3SLQDQF_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,39 +452,39 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45320</v>
+        <v>45151.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45474</v>
+        <v>45186.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45558</v>
+        <v>45263.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45579</v>
+        <v>45326.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45593</v>
+        <v>45480.99999999999</v>
       </c>
       <c r="B6" t="n">
         <v>2</v>
@@ -492,7 +492,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45607</v>
+        <v>45564.99999999999</v>
       </c>
       <c r="B7" t="n">
         <v>2</v>
@@ -500,7 +500,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45628</v>
+        <v>45585.99999999999</v>
       </c>
       <c r="B8" t="n">
         <v>2</v>
@@ -508,9 +508,33 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45635</v>
+        <v>45599.99999999999</v>
       </c>
       <c r="B9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45613.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45634.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45641.99999999999</v>
+      </c>
+      <c r="B12" t="n">
         <v>2</v>
       </c>
     </row>
@@ -525,7 +549,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -547,39 +571,39 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>45169.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45474</v>
+        <v>45199.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45536</v>
+        <v>45260.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45566</v>
+        <v>45322.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45597</v>
+        <v>45504.99999999999</v>
       </c>
       <c r="B6" t="n">
         <v>2</v>
@@ -587,9 +611,33 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45627</v>
+        <v>45565.99999999999</v>
       </c>
       <c r="B7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45596.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45626.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45657.99999999999</v>
+      </c>
+      <c r="B10" t="n">
         <v>4</v>
       </c>
     </row>

--- a/po_analysis_by_asin/B0B3SLQDQF_po_data.xlsx
+++ b/po_analysis_by_asin/B0B3SLQDQF_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -565,7 +566,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -639,6 +640,313 @@
       </c>
       <c r="B10" t="n">
         <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>45151.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.6708354708721114</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.91163704188749</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45186.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.7140810519330106</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.973172314135023</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45263.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.8549604644081508</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.109304780730848</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45326.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>2</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.9658123589031863</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.191351050269728</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45480.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>2</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.229196513688165</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2.444875954282796</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45564.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>2</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1.397847694180211</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2.624173951138218</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45585.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>2</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.427985924256478</v>
+      </c>
+      <c r="D8" t="n">
+        <v>2.674916203390508</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45599.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>2</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.50548783124363</v>
+      </c>
+      <c r="D9" t="n">
+        <v>2.659001994912831</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45613.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>2</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.507080641944797</v>
+      </c>
+      <c r="D10" t="n">
+        <v>2.664895589591624</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45634.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>2</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1.551946799721815</v>
+      </c>
+      <c r="D11" t="n">
+        <v>2.730537143805542</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45641.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>2</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.510183815519915</v>
+      </c>
+      <c r="D12" t="n">
+        <v>2.735702004937023</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45648.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>2</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.53917428474744</v>
+      </c>
+      <c r="D13" t="n">
+        <v>2.756519614071765</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45655.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>2</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1.528025032745859</v>
+      </c>
+      <c r="D14" t="n">
+        <v>2.727470202511853</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45662.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>2</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1.603426744644284</v>
+      </c>
+      <c r="D15" t="n">
+        <v>2.780213667007029</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45669.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>2</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.57060283658408</v>
+      </c>
+      <c r="D16" t="n">
+        <v>2.801023717721808</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45676.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>2</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.616430378592812</v>
+      </c>
+      <c r="D17" t="n">
+        <v>2.783124582694605</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45683.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>2</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1.61370539062034</v>
+      </c>
+      <c r="D18" t="n">
+        <v>2.81864335307616</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45690.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>2</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1.613988977162999</v>
+      </c>
+      <c r="D19" t="n">
+        <v>2.842929909045568</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45697.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>2</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1.658115533304002</v>
+      </c>
+      <c r="D20" t="n">
+        <v>2.851511016780466</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B0B3SLQDQF_po_data.xlsx
+++ b/po_analysis_by_asin/B0B3SLQDQF_po_data.xlsx
@@ -653,7 +653,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -672,16 +672,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -690,12 +680,6 @@
       <c r="B2" t="n">
         <v>1</v>
       </c>
-      <c r="C2" t="n">
-        <v>0.6708354708721114</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.91163704188749</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -704,12 +688,6 @@
       <c r="B3" t="n">
         <v>1</v>
       </c>
-      <c r="C3" t="n">
-        <v>0.7140810519330106</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.973172314135023</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -718,12 +696,6 @@
       <c r="B4" t="n">
         <v>1</v>
       </c>
-      <c r="C4" t="n">
-        <v>0.8549604644081508</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.109304780730848</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -732,12 +704,6 @@
       <c r="B5" t="n">
         <v>2</v>
       </c>
-      <c r="C5" t="n">
-        <v>0.9658123589031863</v>
-      </c>
-      <c r="D5" t="n">
-        <v>2.191351050269728</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -746,12 +712,6 @@
       <c r="B6" t="n">
         <v>2</v>
       </c>
-      <c r="C6" t="n">
-        <v>1.229196513688165</v>
-      </c>
-      <c r="D6" t="n">
-        <v>2.444875954282796</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -760,12 +720,6 @@
       <c r="B7" t="n">
         <v>2</v>
       </c>
-      <c r="C7" t="n">
-        <v>1.397847694180211</v>
-      </c>
-      <c r="D7" t="n">
-        <v>2.624173951138218</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -774,12 +728,6 @@
       <c r="B8" t="n">
         <v>2</v>
       </c>
-      <c r="C8" t="n">
-        <v>1.427985924256478</v>
-      </c>
-      <c r="D8" t="n">
-        <v>2.674916203390508</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -788,12 +736,6 @@
       <c r="B9" t="n">
         <v>2</v>
       </c>
-      <c r="C9" t="n">
-        <v>1.50548783124363</v>
-      </c>
-      <c r="D9" t="n">
-        <v>2.659001994912831</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -802,12 +744,6 @@
       <c r="B10" t="n">
         <v>2</v>
       </c>
-      <c r="C10" t="n">
-        <v>1.507080641944797</v>
-      </c>
-      <c r="D10" t="n">
-        <v>2.664895589591624</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -816,12 +752,6 @@
       <c r="B11" t="n">
         <v>2</v>
       </c>
-      <c r="C11" t="n">
-        <v>1.551946799721815</v>
-      </c>
-      <c r="D11" t="n">
-        <v>2.730537143805542</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -830,12 +760,6 @@
       <c r="B12" t="n">
         <v>2</v>
       </c>
-      <c r="C12" t="n">
-        <v>1.510183815519915</v>
-      </c>
-      <c r="D12" t="n">
-        <v>2.735702004937023</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -844,12 +768,6 @@
       <c r="B13" t="n">
         <v>2</v>
       </c>
-      <c r="C13" t="n">
-        <v>1.53917428474744</v>
-      </c>
-      <c r="D13" t="n">
-        <v>2.756519614071765</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -858,12 +776,6 @@
       <c r="B14" t="n">
         <v>2</v>
       </c>
-      <c r="C14" t="n">
-        <v>1.528025032745859</v>
-      </c>
-      <c r="D14" t="n">
-        <v>2.727470202511853</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -872,12 +784,6 @@
       <c r="B15" t="n">
         <v>2</v>
       </c>
-      <c r="C15" t="n">
-        <v>1.603426744644284</v>
-      </c>
-      <c r="D15" t="n">
-        <v>2.780213667007029</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -886,12 +792,6 @@
       <c r="B16" t="n">
         <v>2</v>
       </c>
-      <c r="C16" t="n">
-        <v>1.57060283658408</v>
-      </c>
-      <c r="D16" t="n">
-        <v>2.801023717721808</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -900,12 +800,6 @@
       <c r="B17" t="n">
         <v>2</v>
       </c>
-      <c r="C17" t="n">
-        <v>1.616430378592812</v>
-      </c>
-      <c r="D17" t="n">
-        <v>2.783124582694605</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -914,12 +808,6 @@
       <c r="B18" t="n">
         <v>2</v>
       </c>
-      <c r="C18" t="n">
-        <v>1.61370539062034</v>
-      </c>
-      <c r="D18" t="n">
-        <v>2.81864335307616</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -928,12 +816,6 @@
       <c r="B19" t="n">
         <v>2</v>
       </c>
-      <c r="C19" t="n">
-        <v>1.613988977162999</v>
-      </c>
-      <c r="D19" t="n">
-        <v>2.842929909045568</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -941,12 +823,6 @@
       </c>
       <c r="B20" t="n">
         <v>2</v>
-      </c>
-      <c r="C20" t="n">
-        <v>1.658115533304002</v>
-      </c>
-      <c r="D20" t="n">
-        <v>2.851511016780466</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B0B3SLQDQF_po_data.xlsx
+++ b/po_analysis_by_asin/B0B3SLQDQF_po_data.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -539,6 +539,14 @@
         <v>2</v>
       </c>
     </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45676.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -550,7 +558,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -642,6 +650,14 @@
         <v>4</v>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45688.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -653,7 +669,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -763,7 +779,7 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45648.99999999999</v>
+        <v>45676.99999999999</v>
       </c>
       <c r="B13" t="n">
         <v>2</v>
@@ -771,7 +787,7 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45655.99999999999</v>
+        <v>45683.99999999999</v>
       </c>
       <c r="B14" t="n">
         <v>2</v>
@@ -779,7 +795,7 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45662.99999999999</v>
+        <v>45690.99999999999</v>
       </c>
       <c r="B15" t="n">
         <v>2</v>
@@ -787,7 +803,7 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45669.99999999999</v>
+        <v>45697.99999999999</v>
       </c>
       <c r="B16" t="n">
         <v>2</v>
@@ -795,7 +811,7 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45676.99999999999</v>
+        <v>45704.99999999999</v>
       </c>
       <c r="B17" t="n">
         <v>2</v>
@@ -803,7 +819,7 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45683.99999999999</v>
+        <v>45711.99999999999</v>
       </c>
       <c r="B18" t="n">
         <v>2</v>
@@ -811,7 +827,7 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45690.99999999999</v>
+        <v>45718.99999999999</v>
       </c>
       <c r="B19" t="n">
         <v>2</v>
@@ -819,9 +835,17 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45697.99999999999</v>
+        <v>45725.99999999999</v>
       </c>
       <c r="B20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45732.99999999999</v>
+      </c>
+      <c r="B21" t="n">
         <v>2</v>
       </c>
     </row>
